--- a/Crawling/music/crawled_data/outlier_data/2022-05-02_2022-05-08/melon/[melon]20220502_20220508_mean_outliers.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-02_2022-05-08/melon/[melon]20220502_20220508_mean_outliers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>날짜</t>
   </si>
@@ -44,90 +44,6 @@
   </si>
   <si>
     <t>순위변동평균(양수)</t>
-  </si>
-  <si>
-    <t>2022-05-02</t>
-  </si>
-  <si>
-    <t>melon</t>
-  </si>
-  <si>
-    <t>ZOOM</t>
-  </si>
-  <si>
-    <t>나의 X에게</t>
-  </si>
-  <si>
-    <t>Celeb</t>
-  </si>
-  <si>
-    <t>LOVE</t>
-  </si>
-  <si>
-    <t>감동이야 (feat. 성시경)</t>
-  </si>
-  <si>
-    <t>나는 트로트가 싫어요</t>
-  </si>
-  <si>
-    <t>롤린 (Rollin')</t>
-  </si>
-  <si>
-    <t>FEARLESS</t>
-  </si>
-  <si>
-    <t>제시 (Jessi)</t>
-  </si>
-  <si>
-    <t>경서</t>
-  </si>
-  <si>
-    <t>싸이 (PSY)</t>
-  </si>
-  <si>
-    <t>몬스타엑스</t>
-  </si>
-  <si>
-    <t>임창정</t>
-  </si>
-  <si>
-    <t>브레이브걸스</t>
-  </si>
-  <si>
-    <t>LE SSERAFIM (르세라핌)</t>
-  </si>
-  <si>
-    <t>싸다9</t>
-  </si>
-  <si>
-    <t>SHAPE of LOVE</t>
-  </si>
-  <si>
-    <t>별거 없던 그 하루로</t>
-  </si>
-  <si>
-    <t>Rollin'</t>
-  </si>
-  <si>
-    <t>P NATION</t>
-  </si>
-  <si>
-    <t>꿈의엔진</t>
-  </si>
-  <si>
-    <t>스타쉽</t>
-  </si>
-  <si>
-    <t>예스아이엠엔터테인먼트</t>
-  </si>
-  <si>
-    <t>BRAVE</t>
-  </si>
-  <si>
-    <t>SOURCE MUSIC</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -485,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,256 +439,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>3.333333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>9.666666666666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9">
-        <v>15.5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
